--- a/チャット_単体テスト.xlsx
+++ b/チャット_単体テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97130FA3-50B0-4BB5-B7A6-F14437CDECA3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8BB0AC2-952F-4280-AD3F-852D61220AFB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
     <rPh sb="18" eb="20">
       <t>ソンザイ</t>
@@ -465,6 +461,10 @@
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1241,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1268,12 +1268,12 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1314,19 +1314,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45994</v>
+        <v>41</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1336,7 +1336,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -1352,19 +1352,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45994</v>
+        <v>24</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1374,7 +1374,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1390,19 +1390,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45994</v>
+        <v>25</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1412,7 +1412,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1428,19 +1428,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45994</v>
+        <v>42</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1450,7 +1450,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1466,19 +1466,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4">
-        <v>45994</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1488,7 +1488,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1504,19 +1504,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45994</v>
+        <v>28</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1526,7 +1526,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45994</v>
+        <v>43</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45994</v>
+        <v>44</v>
+      </c>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -1614,19 +1614,19 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="4">
-        <v>45994</v>
+        <v>45</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -1650,19 +1650,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45994</v>
+        <v>46</v>
+      </c>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1686,19 +1686,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G28" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1722,19 +1722,19 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="4">
-        <v>45994</v>
+        <v>38</v>
+      </c>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -1744,7 +1744,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1756,23 +1756,23 @@
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45994</v>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I32" s="2"/>
     </row>

--- a/チャット_単体テスト.xlsx
+++ b/チャット_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8BB0AC2-952F-4280-AD3F-852D61220AFB}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C26E9492-6F47-4DE9-AF4F-EEBED8ECB696}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -464,7 +464,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
